--- a/translations/parent_text_crisis_palestine/excel files/onboarding.xlsx
+++ b/translations/parent_text_crisis_palestine/excel files/onboarding.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Arabic</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -452,6 +457,11 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -460,6 +470,11 @@
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -468,6 +483,11 @@
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -476,6 +496,11 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -484,6 +509,11 @@
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -492,6 +522,11 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -500,6 +535,11 @@
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -508,6 +548,11 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -516,6 +561,11 @@
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -524,6 +574,11 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -532,6 +587,11 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -540,6 +600,11 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -548,6 +613,11 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -556,6 +626,11 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -564,6 +639,11 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -572,6 +652,11 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -580,6 +665,11 @@
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -588,6 +678,11 @@
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -596,6 +691,11 @@
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -604,6 +704,11 @@
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -612,14 +717,24 @@
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Press YES if you understand and want to receive ParentText.. Type 'EXIT' if you do not wish to participate.</t>
+          <t>Press YES if you understand and want to receive ParentText. Type 'EXIT' if you do not wish to participate.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -628,6 +743,11 @@
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -636,6 +756,11 @@
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -644,6 +769,11 @@
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -652,6 +782,11 @@
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -660,6 +795,11 @@
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -668,6 +808,11 @@
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -676,510 +821,869 @@
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Text / Images</t>
+          <t>It looks like this is not a good time. Please type 1 if you'd like to continue.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Audio</t>
+          <t>Are you sure you do not want to get these messages? If you do not want to receive any more messages, please press NO. If you made a mistake, please press BACK and choose another option.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>Text / Images</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Audio</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Woman</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>One to three</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>More than four</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>I want the tips</t>
+          <t>One to three</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>I do not want the tips</t>
+          <t>More than four</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>I want the tips</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>I do not want the tips</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>West Bank</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>West Bank</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Living in a camp or shelter</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Living in a house or apartment</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Moving around often</t>
+          <t>Living in a camp or shelter</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Prefer not to say</t>
+          <t>Living in a house or apartment</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Under 16 years old</t>
+          <t>Moving around often</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>16-19 years old</t>
+          <t>Prefer not to say</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20-35 years old</t>
+          <t>Under 16 years old</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Over 35 years old</t>
+          <t>16-19 years old</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>20-35 years old</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>اللغة العربية</t>
+          <t>Over 35 years old</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Arabic</t>
+          <t>English</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>اللغة العربية</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BACK</t>
+          <t>Arabic</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NEXT</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>text / images</t>
+          <t>BACK</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>audio</t>
+          <t>NEXT</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>quick_replies</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>text / images</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>audio</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>one to three</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>more than four</t>
+          <t>man</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>i want the tips</t>
+          <t>none</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>i do not want the tips</t>
+          <t>one to three</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>jordan</t>
+          <t>more than four</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>gaza</t>
+          <t>i want the tips</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>west bank</t>
+          <t>i do not want the tips</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>lebanon</t>
+          <t>jordan</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>egypt</t>
+          <t>gaza</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>syria</t>
+          <t>west bank</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>yemen</t>
+          <t>lebanon</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>egypt</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>living in a camp or shelter</t>
+          <t>syria</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>living in a house or apartment</t>
+          <t>yemen</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>moving around often</t>
+          <t>other</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>prefer not to say</t>
+          <t>living in a camp or shelter</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>under 16 years old</t>
+          <t>living in a house or apartment</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>16-19 years old</t>
+          <t>moving around often</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20-35 years old</t>
+          <t>prefer not to say</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>over 35 years old</t>
+          <t>under 16 years old</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>16-19 years old</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>اللغة العربية</t>
+          <t>20-35 years old</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>arabic</t>
+          <t>over 35 years old</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>english</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>اللغة العربية</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>arabic</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>exit</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>back</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/translations/parent_text_crisis_palestine/excel files/onboarding.xlsx
+++ b/translations/parent_text_crisis_palestine/excel files/onboarding.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>❔Before we get started, we have a few questions to make this journey personalised:</t>
+          <t>It looks like this is not a good time. Please type 1 if you'd like to continue.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>📲 How would you prefer to receive content —through mostly text / images or with audio guides?</t>
+          <t>Please select your language:</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorry, I don't understand what you mean.</t>
+          <t>من فضلك ادخل اللغة</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Are you a WOMAN or MAN?</t>
+          <t>Sorry, I don't understand what you mean.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>How many children do you take care of?</t>
+          <t>Welcome to ParentText. Every parent everywhere needs support. We hope we can help. 💚</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>These tips are designed for those who look after children. Would you still like to receive the tips so you can share the advice with friends and family?</t>
+          <t>The tips you will receive in this programme have been developed with support from Sanadak, Anar for Empowerment and Psychosocial Support, World Without Orphans, and Parenting for Lifelong Health.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Thank you for your time.</t>
+          <t xml:space="preserve">🧡 You are a great parent. Thank you for joining us. </t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>📍 Where are you located?</t>
+          <t>✅ Participating in ParentText is optional.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>This is a very difficult and dangerous time for you and your family. These tips might be different from what you need right now. What would you like to do?</t>
+          <t>✅ We won’t ever ask for your name. Anything you share is safe, private, and anonymous.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>That's okay. If you decide you want these tips later, type HELLO.</t>
+          <t>✅Your anonymous information may also be shared with others working to help families like yours build strength and hope in tough times. All your information will be private and can’t be linked back to you.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>What is your current living situation?</t>
+          <t>❌You can stop when you want. Just type {STOP}</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>How old are you?</t>
+          <t>ParentText Terms and Conditions are available here: {consent_link}.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Please select your language:</t>
+          <t>Press YES if you understand and want to receive ParentText. Type 'EXIT' if you do not wish to participate.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>من فضلك ادخل اللغة</t>
+          <t>Are you sure you do not want to get these messages? If you do not want to receive any more messages, please press NO. If you made a mistake, please press BACK and choose another option.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -635,7 +635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>The tips you will receive in this programme have been developed with support from Sanadak, Anar for Empowerment and Psychosocial Support, World Without Orphans, and Parenting for Lifelong Health.</t>
+          <t>That's okay. If you decide you want these tips later, type HELLO.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">🧡 You are a great parent. Thank you for joining us. </t>
+          <t>Thank you! 🤲 We hope these tips will help you build strength and hope for you and your family.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -661,7 +661,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>✅ Participating in ParentText is optional.</t>
+          <t>❔Before we get started, we have a few questions to make this journey personalised:</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -674,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>✅ We won’t ever ask for your name. Anything you share is safe, private, and anonymous.</t>
+          <t>📲 How would you prefer to receive content —through mostly text / images or with audio guides?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -687,7 +687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>✅Your anonymous information may also be shared with others working to help families like yours build strength and hope in tough times. All your information will be private and can’t be linked back to you.</t>
+          <t>How old are you?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -700,7 +700,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>❌You can stop when you want. Just type {STOP}</t>
+          <t>Are you a WOMAN or MAN?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ParentText Terms and Conditions are available here: {consent_link}.</t>
+          <t>How many children do you take care of?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Press YES if you understand and want to receive ParentText. Type 'EXIT' if you do not wish to participate.</t>
+          <t>These tips are designed for those who look after children. Would you still like to receive the tips so you can share the advice with friends and family?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Thank you! 🤲 We hope these tips will help you build strength and hope for you and your family.</t>
+          <t>Thank you for your time.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -752,7 +752,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Are you sure you do not want to get these messages? If you do not want to receive any more messages, please type NO. If you made a mistake, please press BACK and choose another option.</t>
+          <t>📍 Where are you located?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Thanks for answering our questions. We're ready to get started. 💚</t>
+          <t>This is a very difficult and dangerous time for you and your family. These tips might be different from what you need right now. What would you like to do?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -778,7 +778,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>To start, you can watch this video to learn about ParentText.</t>
+          <t>What is your current living situation?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -791,7 +791,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Variables have been reset</t>
+          <t>Thanks for answering our questions. We're ready to get started. 💚</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -804,7 +804,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Welcome to ParentText. Every parent everywhere needs support. We hope we can help. 💚</t>
+          <t>To start, you can watch this video to learn about ParentText.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -817,46 +817,46 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>I'm sorry. I don't understand. Please enter a number 0-30.</t>
+          <t>English</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>quick_replies</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>It looks like this is not a good time. Please type 1 if you'd like to continue.</t>
+          <t>اللغة العربية</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>quick_replies</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Are you sure you do not want to get these messages? If you do not want to receive any more messages, please press NO. If you made a mistake, please press BACK and choose another option.</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>text</t>
+          <t>quick_replies</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Text / Images</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -869,7 +869,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Audio</t>
+          <t>BACK</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -882,7 +882,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>Text / Images</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -895,7 +895,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Audio</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Under 16 years old</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>One to three</t>
+          <t>16-19 years old</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>More than four</t>
+          <t>20-35 years old</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -947,7 +947,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>I want the tips</t>
+          <t>Over 35 years old</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -960,7 +960,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>I do not want the tips</t>
+          <t>Woman</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -973,7 +973,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -999,7 +999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>West Bank</t>
+          <t>One to three</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>More than four</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>I want the tips</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1038,7 +1038,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>I do not want the tips</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1051,7 +1051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1064,7 +1064,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1077,7 +1077,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Living in a camp or shelter</t>
+          <t>West Bank</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Living in a house or apartment</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Moving around often</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1116,7 +1116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Prefer not to say</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1129,7 +1129,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Under 16 years old</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1142,7 +1142,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>16-19 years old</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1155,7 +1155,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20-35 years old</t>
+          <t>Living in a camp or shelter</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1168,7 +1168,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Over 35 years old</t>
+          <t>Living in a house or apartment</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>Moving around often</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -1194,7 +1194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>اللغة العربية</t>
+          <t>Prefer not to say</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1207,7 +1207,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Arabic</t>
+          <t>NEXT</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -1220,59 +1220,59 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>english</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>quick_replies</t>
+          <t>arguments</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BACK</t>
+          <t>اللغة العربية</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>quick_replies</t>
+          <t>arguments</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NEXT</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
-          <t>quick_replies</t>
+          <t>arguments</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>exit</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>quick_replies</t>
+          <t>arguments</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>text / images</t>
+          <t>back</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>audio</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>text / images</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -1311,7 +1311,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>audio</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>under 16 years old</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1337,7 +1337,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>one to three</t>
+          <t>16-19 years old</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -1350,7 +1350,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>more than four</t>
+          <t>20-35 years old</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -1363,7 +1363,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>i want the tips</t>
+          <t>over 35 years old</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -1376,7 +1376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>i do not want the tips</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>jordan</t>
+          <t>man</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1402,7 +1402,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>gaza</t>
+          <t>none</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -1415,7 +1415,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>west bank</t>
+          <t>one to three</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -1428,7 +1428,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>lebanon</t>
+          <t>more than four</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>egypt</t>
+          <t>i want the tips</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -1454,7 +1454,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>syria</t>
+          <t>i do not want the tips</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>yemen</t>
+          <t>jordan</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>gaza</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -1493,7 +1493,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>living in a camp or shelter</t>
+          <t>west bank</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -1506,7 +1506,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>living in a house or apartment</t>
+          <t>lebanon</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -1519,7 +1519,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>moving around often</t>
+          <t>egypt</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1532,7 +1532,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>prefer not to say</t>
+          <t>syria</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -1545,7 +1545,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>under 16 years old</t>
+          <t>yemen</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>16-19 years old</t>
+          <t>other</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -1571,7 +1571,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20-35 years old</t>
+          <t>living in a camp or shelter</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -1584,7 +1584,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>over 35 years old</t>
+          <t>living in a house or apartment</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>moving around often</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -1610,76 +1610,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>اللغة العربية</t>
+          <t>prefer not to say</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
-        <is>
-          <t>arguments</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>arabic</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>arguments</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>arguments</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>exit</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>arguments</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>arguments</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>back</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr">
         <is>
           <t>arguments</t>
         </is>

--- a/translations/parent_text_crisis_palestine/excel files/onboarding.xlsx
+++ b/translations/parent_text_crisis_palestine/excel files/onboarding.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>It looks like this is not a good time. Please type 1 if you'd like to continue.</t>
+          <t>variables have been reset</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Please select your language:</t>
+          <t>It looks like this is not a good time. Please type 1 if you'd like to continue.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>من فضلك ادخل اللغة</t>
+          <t>Please select your language:</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sorry, I don't understand what you mean.</t>
+          <t>من فضلك ادخل اللغة</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Welcome to ParentText. Every parent everywhere needs support. We hope we can help. 💚</t>
+          <t>Sorry, I don't understand what you mean.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The tips you will receive in this programme have been developed with support from Sanadak, Anar for Empowerment and Psychosocial Support, World Without Orphans, and Parenting for Lifelong Health.</t>
+          <t>Welcome to ParentText. Every parent everywhere needs support. We hope we can help. 💚</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">🧡 You are a great parent. Thank you for joining us. </t>
+          <t>The tips you will receive in this programme have been developed with support from Sanadak, Anar for Empowerment and Psychosocial Support, World Without Orphans, and Parenting for Lifelong Health.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>✅ Participating in ParentText is optional.</t>
+          <t xml:space="preserve">🧡 You are a great parent. Thank you for joining us. </t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>✅ We won’t ever ask for your name. Anything you share is safe, private, and anonymous.</t>
+          <t>✅ Participating in ParentText is optional.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>✅Your anonymous information may also be shared with others working to help families like yours build strength and hope in tough times. All your information will be private and can’t be linked back to you.</t>
+          <t>✅ We won’t ever ask for your name. Anything you share is safe, private, and anonymous.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>❌You can stop when you want. Just type {STOP}</t>
+          <t>✅Your anonymous information may also be shared with others working to help families like yours build strength and hope in tough times. All your information will be private and can’t be linked back to you.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ParentText Terms and Conditions are available here: {consent_link}.</t>
+          <t>❌You can stop when you want. Just type {STOP}</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Press YES if you understand and want to receive ParentText. Type 'EXIT' if you do not wish to participate.</t>
+          <t>ParentText Terms and Conditions are available here: {consent_link}.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Are you sure you do not want to get these messages? If you do not want to receive any more messages, please press NO. If you made a mistake, please press BACK and choose another option.</t>
+          <t>Press YES if you understand and want to receive ParentText. Type 'EXIT' if you do not wish to participate.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -635,7 +635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>That's okay. If you decide you want these tips later, type HELLO.</t>
+          <t>Are you sure you do not want to get these messages? If you do not want to receive any more messages, please press NO. If you made a mistake, please press BACK and choose another option.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Thank you! 🤲 We hope these tips will help you build strength and hope for you and your family.</t>
+          <t>That's okay. If you decide you want these tips later, type {joining_trigger}.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -661,7 +661,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>❔Before we get started, we have a few questions to make this journey personalised:</t>
+          <t>Thank you! 🤲 We hope these tips will help you build strength and hope for you and your family.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -674,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>📲 How would you prefer to receive content —through mostly text / images or with audio guides?</t>
+          <t>❔Before we get started, we have a few questions to make this journey personalised:</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -687,7 +687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>How old are you?</t>
+          <t>📲 How would you prefer to receive content —through mostly text / images or with audio guides?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -700,7 +700,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Are you a WOMAN or MAN?</t>
+          <t>How old are you?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>How many children do you take care of?</t>
+          <t>Are you a WOMAN or MAN?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>These tips are designed for those who look after children. Would you still like to receive the tips so you can share the advice with friends and family?</t>
+          <t>How many children do you take care of?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -739,7 +739,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Thank you for your time.</t>
+          <t>These tips are designed for those who look after children. Would you still like to receive the tips so you can share the advice with friends and family?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -752,7 +752,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>📍 Where are you located?</t>
+          <t>Thank you for your time. If you decide you want these tips later, type {joining_trigger}.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -765,7 +765,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>This is a very difficult and dangerous time for you and your family. These tips might be different from what you need right now. What would you like to do?</t>
+          <t>📍 Where are you located?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -778,7 +778,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>What is your current living situation?</t>
+          <t>This is a very difficult and dangerous time for you and your family. These tips might be different from what you need right now. What would you like to do?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -791,7 +791,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Thanks for answering our questions. We're ready to get started. 💚</t>
+          <t>What is your current living situation?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -804,7 +804,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>To start, you can watch this video to learn about ParentText.</t>
+          <t>Thanks for answering our questions. We're ready to get started. 💚</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -817,20 +817,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>English</t>
+          <t>To start, you can watch this video to learn about ParentText.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>quick_replies</t>
+          <t>text</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>اللغة العربية</t>
+          <t>English</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -843,7 +843,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>اللغة العربية</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -856,7 +856,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -869,7 +869,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BACK</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -882,7 +882,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Text / Images</t>
+          <t>BACK</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -895,7 +895,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Audio</t>
+          <t>Text / Images</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Under 16 years old</t>
+          <t>Audio</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>16-19 years old</t>
+          <t>Under 16 years old</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20-35 years old</t>
+          <t>16-19 years old</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -947,7 +947,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Over 35 years old</t>
+          <t>20-35 years old</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -960,7 +960,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>Over 35 years old</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -973,7 +973,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Woman</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -999,7 +999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>One to three</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>More than four</t>
+          <t>One to three</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>I want the tips</t>
+          <t>More than four</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1038,7 +1038,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>I do not want the tips</t>
+          <t>I want the tips</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1051,7 +1051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>I do not want the tips</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1064,7 +1064,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Gaza</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1077,7 +1077,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>West Bank</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>West Bank</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1116,7 +1116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1129,7 +1129,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1142,7 +1142,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1155,7 +1155,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Living in a camp or shelter</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1168,7 +1168,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Living in a house or apartment</t>
+          <t>Living in a camp or shelter</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Moving around often</t>
+          <t>Living in a house or apartment</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -1194,7 +1194,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Prefer not to say</t>
+          <t>Moving around often</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
@@ -1207,7 +1207,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NEXT</t>
+          <t>Prefer not to say</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -1220,20 +1220,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>NEXT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>arguments</t>
+          <t>quick_replies</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>اللغة العربية</t>
+          <t>english</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -1246,7 +1246,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>اللغة العربية</t>
         </is>
       </c>
       <c r="B63" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>exit</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1272,7 +1272,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>back</t>
+          <t>exit</t>
         </is>
       </c>
       <c r="B65" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>back</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>text / images</t>
+          <t>no</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -1311,7 +1311,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>audio</t>
+          <t>text / images</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -1324,7 +1324,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>under 16 years old</t>
+          <t>audio</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1337,7 +1337,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>16-19 years old</t>
+          <t>under 16 years old</t>
         </is>
       </c>
       <c r="B70" t="inlineStr"/>
@@ -1350,7 +1350,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20-35 years old</t>
+          <t>16-19 years old</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -1363,7 +1363,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>over 35 years old</t>
+          <t>20-35 years old</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
@@ -1376,7 +1376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>over 35 years old</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1402,7 +1402,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>man</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -1415,7 +1415,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>one to three</t>
+          <t>none</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -1428,7 +1428,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>more than four</t>
+          <t>one to three</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>i want the tips</t>
+          <t>more than four</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -1454,7 +1454,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>i do not want the tips</t>
+          <t>i want the tips</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>jordan</t>
+          <t>i do not want the tips</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>gaza</t>
+          <t>jordan</t>
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
@@ -1493,7 +1493,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>west bank</t>
+          <t>gaza</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -1506,7 +1506,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>lebanon</t>
+          <t>west bank</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -1519,7 +1519,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>egypt</t>
+          <t>lebanon</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -1532,7 +1532,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>syria</t>
+          <t>egypt</t>
         </is>
       </c>
       <c r="B85" t="inlineStr"/>
@@ -1545,7 +1545,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>yemen</t>
+          <t>syria</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>yemen</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -1571,7 +1571,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>living in a camp or shelter</t>
+          <t>other</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -1584,7 +1584,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>living in a house or apartment</t>
+          <t>living in a camp or shelter</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>moving around often</t>
+          <t>living in a house or apartment</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -1610,11 +1610,24 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>prefer not to say</t>
+          <t>moving around often</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
+        <is>
+          <t>arguments</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>prefer not to say</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
         <is>
           <t>arguments</t>
         </is>
